--- a/task6/output.xlsx
+++ b/task6/output.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel" sheetId="1" r:id="rId1"/>
+    <sheet name="Session SL-13" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,42 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+  <si>
+    <t>Фио</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Alexey Solin</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>25.12.2019 0:00:00</t>
+  </si>
+  <si>
+    <t>Компьютерная безопасность</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>05.01.2020 0:00:00</t>
+  </si>
   <si>
     <t>Ivan Kraev</t>
   </si>
   <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>25.12.2019 0:00:00</t>
-  </si>
-  <si>
-    <t>Alexey Solin</t>
+    <t>Nastya Krivilo</t>
   </si>
   <si>
     <t>Nikola Letsko</t>
   </si>
   <si>
-    <t>Nastya Krivilo</t>
+    <t>Sasha Puh</t>
   </si>
   <si>
     <t>Victor Kres</t>
-  </si>
-  <si>
-    <t>Sasha Puh</t>
-  </si>
-  <si>
-    <t>Компьютерная безопасность</t>
-  </si>
-  <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>05.01.2020 0:00:00</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,22 +412,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>45</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>56</v>
@@ -423,72 +438,72 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
       <c r="E6">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -500,29 +515,29 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -539,24 +554,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -568,24 +583,41 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>65</v>
+      <c r="E13">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
